--- a/.0 SGWH-RCA/.0.1 Inicio/0.1.2.-Planificacion/0.1.2.4.-Gestion Costos/Puntos de Funcion SWGH-RCA.xlsx
+++ b/.0 SGWH-RCA/.0.1 Inicio/0.1.2.-Planificacion/0.1.2.4.-Gestion Costos/Puntos de Funcion SWGH-RCA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos gomez\Septimo Semestre\Administracion Proyectos Software\HotelRCA\.0 SGWH-RCA\.0.1 Inicio\0.1.2.-Planifiacion\0.1.2.4.-Gestion Costos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos gomez\Septimo Semestre\Administracion Proyectos Software\HotelRCA\.0 SGWH-RCA\.0.1 Inicio\0.1.2.-Planificacion\0.1.2.4.-Gestion Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4635" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4635" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Limites del Sistema" sheetId="8" r:id="rId1"/>
@@ -1813,54 +1813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1901,45 +1853,93 @@
     <xf numFmtId="0" fontId="23" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -2057,7 +2057,7 @@
             <c:numRef>
               <c:f>'[1]CALCULO DE FACTIBILIDAD ECONOMI'!$C$9:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1600</c:v>
@@ -2121,7 +2121,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="#,##0.00">
+                <c:pt idx="0">
                   <c:v>34822.660000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2140,11 +2140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242555536"/>
-        <c:axId val="242549936"/>
+        <c:axId val="192408384"/>
+        <c:axId val="192408944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242555536"/>
+        <c:axId val="192408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,13 +2198,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242549936"/>
+        <c:crossAx val="192408944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242549936"/>
+        <c:axId val="192408944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2224,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2258,7 +2258,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242555536"/>
+        <c:crossAx val="192408384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
@@ -2913,15 +2913,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
@@ -3992,47 +3992,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="157" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
     </row>
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
@@ -4248,15 +4248,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
@@ -4867,16 +4867,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G3" s="106"/>
@@ -5072,12 +5072,12 @@
       <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -5094,7 +5094,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="137" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="111">
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="138" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="111">
@@ -5136,7 +5136,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="137" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="111">
@@ -5164,7 +5164,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="138" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="111">
@@ -5178,7 +5178,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="137" t="s">
         <v>145</v>
       </c>
       <c r="C27" s="111">
@@ -5192,7 +5192,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="138" t="s">
         <v>146</v>
       </c>
       <c r="C28" s="111">
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="137" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="111">
@@ -5234,7 +5234,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="138" t="s">
         <v>149</v>
       </c>
       <c r="C31" s="111">
@@ -5248,7 +5248,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="137" t="s">
         <v>150</v>
       </c>
       <c r="C32" s="111">
@@ -5276,7 +5276,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="154" t="s">
+      <c r="B34" s="138" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="111">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="137" t="s">
         <v>153</v>
       </c>
       <c r="C35" s="111">
@@ -5318,7 +5318,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="138" t="s">
         <v>155</v>
       </c>
       <c r="C37" s="111">
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="137" t="s">
         <v>156</v>
       </c>
       <c r="C38" s="111">
@@ -5360,13 +5360,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="155">
+      <c r="C40" s="139">
         <v>6</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="139">
         <v>2</v>
       </c>
       <c r="E40" s="111" t="s">
@@ -5374,13 +5374,13 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="153" t="s">
+      <c r="B41" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="156">
+      <c r="C41" s="140">
         <v>6</v>
       </c>
-      <c r="D41" s="156">
+      <c r="D41" s="140">
         <v>2</v>
       </c>
       <c r="E41" s="111" t="s">
@@ -5391,10 +5391,10 @@
       <c r="B42" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="156">
+      <c r="C42" s="140">
         <v>9</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="141">
         <v>3</v>
       </c>
       <c r="E42" s="111" t="s">
@@ -5402,13 +5402,13 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="154" t="s">
+      <c r="B43" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="155">
+      <c r="C43" s="139">
         <v>9</v>
       </c>
-      <c r="D43" s="155">
+      <c r="D43" s="139">
         <v>3</v>
       </c>
       <c r="E43" s="111" t="s">
@@ -5416,7 +5416,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="158" t="s">
+      <c r="B44" s="142" t="s">
         <v>162</v>
       </c>
       <c r="C44" s="111">
@@ -5425,49 +5425,49 @@
       <c r="D44" s="111">
         <v>1</v>
       </c>
-      <c r="E44" s="159" t="s">
+      <c r="E44" s="143" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="160" t="s">
+      <c r="B45" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="161">
+      <c r="C45" s="145">
         <v>9</v>
       </c>
-      <c r="D45" s="161">
-        <v>1</v>
-      </c>
-      <c r="E45" s="159" t="s">
+      <c r="D45" s="145">
+        <v>1</v>
+      </c>
+      <c r="E45" s="143" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="160" t="s">
+      <c r="B46" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="161">
+      <c r="C46" s="145">
         <v>5</v>
       </c>
-      <c r="D46" s="161">
-        <v>1</v>
-      </c>
-      <c r="E46" s="159" t="s">
+      <c r="D46" s="145">
+        <v>1</v>
+      </c>
+      <c r="E46" s="143" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="161">
+      <c r="C47" s="145">
         <v>5</v>
       </c>
-      <c r="D47" s="161">
-        <v>1</v>
-      </c>
-      <c r="E47" s="159" t="s">
+      <c r="D47" s="145">
+        <v>1</v>
+      </c>
+      <c r="E47" s="143" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5511,12 +5511,12 @@
       <c r="E53"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K55" s="4"/>
@@ -5536,7 +5536,7 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="162" t="s">
+      <c r="B57" s="146" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="111">
@@ -5550,7 +5550,7 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="162" t="s">
+      <c r="B58" s="146" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="111">
@@ -5564,7 +5564,7 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="146" t="s">
         <v>193</v>
       </c>
       <c r="C59" s="111">
@@ -5578,7 +5578,7 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="162" t="s">
+      <c r="B60" s="146" t="s">
         <v>194</v>
       </c>
       <c r="C60" s="111">
@@ -5592,7 +5592,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="162" t="s">
+      <c r="B61" s="146" t="s">
         <v>197</v>
       </c>
       <c r="C61" s="111">
@@ -5606,7 +5606,7 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="162" t="s">
+      <c r="B62" s="146" t="s">
         <v>195</v>
       </c>
       <c r="C62" s="111">
@@ -5620,7 +5620,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="162" t="s">
+      <c r="B63" s="146" t="s">
         <v>196</v>
       </c>
       <c r="C63" s="111">
@@ -5661,12 +5661,12 @@
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="145"/>
+      <c r="C67" s="162"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="163"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -5688,331 +5688,331 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="163" t="s">
+      <c r="B70" s="147" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="164">
+      <c r="C70" s="148">
         <v>7</v>
       </c>
-      <c r="D70" s="164">
+      <c r="D70" s="148">
         <v>2</v>
       </c>
-      <c r="E70" s="164" t="s">
+      <c r="E70" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="163" t="s">
+      <c r="B71" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="164">
+      <c r="C71" s="148">
         <v>7</v>
       </c>
-      <c r="D71" s="164">
+      <c r="D71" s="148">
         <v>2</v>
       </c>
-      <c r="E71" s="164" t="s">
+      <c r="E71" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="163" t="s">
+      <c r="B72" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="164">
+      <c r="C72" s="148">
         <v>12</v>
       </c>
-      <c r="D72" s="164">
-        <v>1</v>
-      </c>
-      <c r="E72" s="164" t="s">
+      <c r="D72" s="148">
+        <v>1</v>
+      </c>
+      <c r="E72" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="163" t="s">
+      <c r="B73" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="164">
+      <c r="C73" s="148">
         <v>12</v>
       </c>
-      <c r="D73" s="164">
-        <v>1</v>
-      </c>
-      <c r="E73" s="164" t="s">
+      <c r="D73" s="148">
+        <v>1</v>
+      </c>
+      <c r="E73" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="163" t="s">
+      <c r="B74" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="164">
+      <c r="C74" s="148">
         <v>9</v>
       </c>
-      <c r="D74" s="164">
-        <v>1</v>
-      </c>
-      <c r="E74" s="164" t="s">
+      <c r="D74" s="148">
+        <v>1</v>
+      </c>
+      <c r="E74" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="163" t="s">
+      <c r="B75" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="164">
+      <c r="C75" s="148">
         <v>9</v>
       </c>
-      <c r="D75" s="164">
-        <v>1</v>
-      </c>
-      <c r="E75" s="164" t="s">
+      <c r="D75" s="148">
+        <v>1</v>
+      </c>
+      <c r="E75" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="163" t="s">
+      <c r="B76" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="C76" s="164">
+      <c r="C76" s="148">
         <v>7</v>
       </c>
-      <c r="D76" s="164">
+      <c r="D76" s="148">
         <v>2</v>
       </c>
-      <c r="E76" s="164" t="s">
+      <c r="E76" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="163" t="s">
+      <c r="B77" s="147" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="164">
+      <c r="C77" s="148">
         <v>7</v>
       </c>
-      <c r="D77" s="164">
+      <c r="D77" s="148">
         <v>2</v>
       </c>
-      <c r="E77" s="164" t="s">
+      <c r="E77" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="163" t="s">
+      <c r="B78" s="147" t="s">
         <v>210</v>
       </c>
-      <c r="C78" s="164">
-        <v>4</v>
-      </c>
-      <c r="D78" s="164">
-        <v>1</v>
-      </c>
-      <c r="E78" s="164" t="s">
+      <c r="C78" s="148">
+        <v>4</v>
+      </c>
+      <c r="D78" s="148">
+        <v>1</v>
+      </c>
+      <c r="E78" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="163" t="s">
+      <c r="B79" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="164">
-        <v>4</v>
-      </c>
-      <c r="D79" s="164">
-        <v>1</v>
-      </c>
-      <c r="E79" s="164" t="s">
+      <c r="C79" s="148">
+        <v>4</v>
+      </c>
+      <c r="D79" s="148">
+        <v>1</v>
+      </c>
+      <c r="E79" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="163" t="s">
+      <c r="B80" s="147" t="s">
         <v>212</v>
       </c>
-      <c r="C80" s="164">
+      <c r="C80" s="148">
         <v>7</v>
       </c>
-      <c r="D80" s="164">
-        <v>1</v>
-      </c>
-      <c r="E80" s="164" t="s">
+      <c r="D80" s="148">
+        <v>1</v>
+      </c>
+      <c r="E80" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="163" t="s">
+      <c r="B81" s="147" t="s">
         <v>213</v>
       </c>
-      <c r="C81" s="164">
+      <c r="C81" s="148">
         <v>7</v>
       </c>
-      <c r="D81" s="164">
-        <v>1</v>
-      </c>
-      <c r="E81" s="164" t="s">
+      <c r="D81" s="148">
+        <v>1</v>
+      </c>
+      <c r="E81" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="163" t="s">
+      <c r="B82" s="147" t="s">
         <v>214</v>
       </c>
-      <c r="C82" s="164">
+      <c r="C82" s="148">
         <v>7</v>
       </c>
-      <c r="D82" s="164">
+      <c r="D82" s="148">
         <v>2</v>
       </c>
-      <c r="E82" s="164" t="s">
+      <c r="E82" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="163" t="s">
+      <c r="B83" s="147" t="s">
         <v>215</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="148">
         <v>7</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="148">
         <v>2</v>
       </c>
-      <c r="E83" s="164" t="s">
+      <c r="E83" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="163" t="s">
+      <c r="B84" s="147" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="164">
+      <c r="C84" s="148">
         <v>10</v>
       </c>
-      <c r="D84" s="164">
+      <c r="D84" s="148">
         <v>3</v>
       </c>
-      <c r="E84" s="164" t="s">
+      <c r="E84" s="148" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="163" t="s">
+      <c r="B85" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="C85" s="164">
+      <c r="C85" s="148">
         <v>10</v>
       </c>
-      <c r="D85" s="164">
+      <c r="D85" s="148">
         <v>3</v>
       </c>
-      <c r="E85" s="164" t="s">
+      <c r="E85" s="148" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="163" t="s">
+      <c r="B86" s="147" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="164">
+      <c r="C86" s="148">
         <v>8</v>
       </c>
-      <c r="D86" s="164">
-        <v>1</v>
-      </c>
-      <c r="E86" s="164" t="s">
+      <c r="D86" s="148">
+        <v>1</v>
+      </c>
+      <c r="E86" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="165" t="s">
+      <c r="B87" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="166">
+      <c r="C87" s="150">
         <v>8</v>
       </c>
-      <c r="D87" s="166">
-        <v>1</v>
-      </c>
-      <c r="E87" s="166" t="s">
+      <c r="D87" s="150">
+        <v>1</v>
+      </c>
+      <c r="E87" s="150" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="163" t="s">
+      <c r="B88" s="147" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="164">
+      <c r="C88" s="148">
         <v>10</v>
       </c>
-      <c r="D88" s="164">
-        <v>1</v>
-      </c>
-      <c r="E88" s="164" t="s">
+      <c r="D88" s="148">
+        <v>1</v>
+      </c>
+      <c r="E88" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="165" t="s">
+      <c r="B89" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="166">
+      <c r="C89" s="150">
         <v>10</v>
       </c>
-      <c r="D89" s="166">
-        <v>1</v>
-      </c>
-      <c r="E89" s="166" t="s">
+      <c r="D89" s="150">
+        <v>1</v>
+      </c>
+      <c r="E89" s="150" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="163" t="s">
+      <c r="B90" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="C90" s="164">
+      <c r="C90" s="148">
         <v>6</v>
       </c>
-      <c r="D90" s="164">
-        <v>1</v>
-      </c>
-      <c r="E90" s="164" t="s">
+      <c r="D90" s="148">
+        <v>1</v>
+      </c>
+      <c r="E90" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="163" t="s">
+      <c r="B91" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="C91" s="164">
+      <c r="C91" s="148">
         <v>6</v>
       </c>
-      <c r="D91" s="164">
-        <v>1</v>
-      </c>
-      <c r="E91" s="164" t="s">
+      <c r="D91" s="148">
+        <v>1</v>
+      </c>
+      <c r="E91" s="148" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="4"/>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="167" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -6107,7 +6107,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="149"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="18" t="s">
         <v>30</v>
       </c>
@@ -6126,7 +6126,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="150"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
@@ -6145,7 +6145,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="169" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -6166,7 +6166,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="149"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="30" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6185,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="150"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="32" t="s">
         <v>31</v>
       </c>
@@ -6204,7 +6204,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="169" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -6225,7 +6225,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="149"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
@@ -6244,7 +6244,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="150"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
@@ -6263,7 +6263,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="169" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -6284,7 +6284,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="149"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="24" t="s">
         <v>30</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="150"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="26" t="s">
         <v>31</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="169" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -6341,7 +6341,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="149"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="42" t="s">
         <v>30</v>
       </c>
@@ -6359,7 +6359,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="150"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="44" t="s">
         <v>31</v>
       </c>
@@ -6378,10 +6378,10 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
       <c r="F19" s="16" t="s">
         <v>28</v>
       </c>
@@ -6408,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="H5" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6437,12 +6437,12 @@
       <c r="B5" s="48">
         <v>4</v>
       </c>
-      <c r="F5" s="167" t="s">
+      <c r="F5" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="168"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
+      <c r="G5" s="175"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
@@ -6503,11 +6503,11 @@
       <c r="B9" s="48">
         <v>2</v>
       </c>
-      <c r="F9" s="169" t="s">
+      <c r="F9" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="170"/>
-      <c r="H9" s="171"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="178"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -6531,10 +6531,10 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="177" t="s">
+      <c r="M10" s="181" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="177"/>
+      <c r="N10" s="181"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
@@ -6593,11 +6593,11 @@
       <c r="B13" s="48">
         <v>2</v>
       </c>
-      <c r="F13" s="172" t="s">
+      <c r="F13" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="54" t="s">
@@ -6631,10 +6631,10 @@
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="178" t="s">
+      <c r="M14" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="178">
+      <c r="N14" s="151">
         <v>1527.42</v>
       </c>
     </row>
@@ -6680,12 +6680,12 @@
       <c r="B17" s="48">
         <v>0</v>
       </c>
-      <c r="F17" s="173" t="s">
+      <c r="F17" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -6711,8 +6711,8 @@
         <v>63</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6742,13 +6742,23 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f>(24*1)*4</f>
+        <v>96</v>
+      </c>
+    </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="174" t="s">
+      <c r="F21" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="172"/>
+      <c r="M21">
+        <f>(380.59/4)/24</f>
+        <v>3.9644791666666666</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F22" s="59" t="s">
@@ -6778,6 +6788,10 @@
       <c r="I23" s="61">
         <f>F23*G23*H23</f>
         <v>24438.720000000001</v>
+      </c>
+      <c r="M23">
+        <f>(24*4.02)*4</f>
+        <v>385.91999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6800,7 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -6813,10 +6827,10 @@
       <c r="A2" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="180">
+      <c r="B2" s="153">
         <v>1600</v>
       </c>
-      <c r="C2" s="180">
+      <c r="C2" s="153">
         <f>B4</f>
         <v>24438.720000000001</v>
       </c>
@@ -6825,10 +6839,10 @@
       <c r="A3" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="180">
+      <c r="B3" s="153">
         <v>5990.4</v>
       </c>
-      <c r="C3" s="181">
+      <c r="C3" s="154">
         <v>912</v>
       </c>
     </row>
@@ -6836,7 +6850,7 @@
       <c r="A4" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="180">
+      <c r="B4" s="153">
         <f>'Nivel Influencia'!I23</f>
         <v>24438.720000000001</v>
       </c>
@@ -6846,16 +6860,16 @@
       <c r="A5" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="181">
+      <c r="B5" s="154">
         <v>912</v>
       </c>
       <c r="C5" s="54"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="152" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6863,7 +6877,7 @@
       <c r="B9" s="54">
         <v>0</v>
       </c>
-      <c r="C9" s="180">
+      <c r="C9" s="153">
         <v>1600</v>
       </c>
     </row>
@@ -6871,7 +6885,7 @@
       <c r="B10" s="54">
         <v>4</v>
       </c>
-      <c r="C10" s="180">
+      <c r="C10" s="153">
         <v>5990.4</v>
       </c>
     </row>
@@ -6879,7 +6893,7 @@
       <c r="B11" s="54">
         <v>0</v>
       </c>
-      <c r="C11" s="180">
+      <c r="C11" s="153">
         <f>B4</f>
         <v>24438.720000000001</v>
       </c>
@@ -6888,7 +6902,7 @@
       <c r="B12" s="54">
         <v>4</v>
       </c>
-      <c r="C12" s="181">
+      <c r="C12" s="154">
         <v>912</v>
       </c>
     </row>
